--- a/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20086</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12409</v>
+        <v>13143</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30598</v>
+        <v>30067</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02898496457050284</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01790621098303007</v>
+        <v>0.01896572632373471</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04415316196669935</v>
+        <v>0.04338738913272931</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -765,19 +765,19 @@
         <v>22663</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14901</v>
+        <v>14156</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32826</v>
+        <v>32612</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0329239203417793</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0216469890633165</v>
+        <v>0.02056524384358302</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04768808127714368</v>
+        <v>0.0473773087908675</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -786,19 +786,19 @@
         <v>42750</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31875</v>
+        <v>31455</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56240</v>
+        <v>56514</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03094782271748437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02307516510260967</v>
+        <v>0.02277145940824066</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0407139764413905</v>
+        <v>0.04091225417103609</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>672908</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>662396</v>
+        <v>662927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>680585</v>
+        <v>679851</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9710150354294972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9558468380333005</v>
+        <v>0.9566126108672706</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9820937890169699</v>
+        <v>0.9810342736762653</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>673</v>
@@ -836,19 +836,19 @@
         <v>665688</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>655525</v>
+        <v>655739</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>673450</v>
+        <v>674195</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9670760796582207</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9523119187228563</v>
+        <v>0.9526226912091325</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9783530109366835</v>
+        <v>0.979434756156417</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1334</v>
@@ -857,19 +857,19 @@
         <v>1338595</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1325105</v>
+        <v>1324831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1349470</v>
+        <v>1349890</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9690521772825156</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9592860235586094</v>
+        <v>0.9590877458289639</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9769248348973901</v>
+        <v>0.9772285405917592</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>24337</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15536</v>
+        <v>15743</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35511</v>
+        <v>35634</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02530384285795952</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01615276253259908</v>
+        <v>0.01636824063088129</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03692184957971393</v>
+        <v>0.03704942025248161</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -982,19 +982,19 @@
         <v>55125</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42739</v>
+        <v>42153</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71452</v>
+        <v>70711</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05692468276560046</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04413346483566141</v>
+        <v>0.04352863619502179</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07378375568778864</v>
+        <v>0.07301916095898058</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -1003,19 +1003,19 @@
         <v>79463</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63226</v>
+        <v>62978</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>98445</v>
+        <v>98079</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04116826722030463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03275615975128526</v>
+        <v>0.03262784860453585</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05100275636971214</v>
+        <v>0.05081294835347101</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>937463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>926289</v>
+        <v>926166</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>946264</v>
+        <v>946057</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9746961571420405</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9630781504202863</v>
+        <v>0.9629505797475186</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9838472374674009</v>
+        <v>0.9836317593691187</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>857</v>
@@ -1053,19 +1053,19 @@
         <v>913268</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>896941</v>
+        <v>897682</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>925654</v>
+        <v>926240</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9430753172343995</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9262162443122112</v>
+        <v>0.926980839041019</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9558665351643384</v>
+        <v>0.9564713638049781</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1730</v>
@@ -1074,19 +1074,19 @@
         <v>1850730</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1831748</v>
+        <v>1832114</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1866967</v>
+        <v>1867215</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9588317327796954</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9489972436302879</v>
+        <v>0.9491870516465293</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9672438402487148</v>
+        <v>0.9673721513954643</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13204</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6693</v>
+        <v>7727</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21986</v>
+        <v>23447</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01946055527062516</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00986426143408079</v>
+        <v>0.01138884701941886</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03240327740039639</v>
+        <v>0.03455595587274558</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -1199,19 +1199,19 @@
         <v>46706</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35330</v>
+        <v>35213</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60744</v>
+        <v>60964</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06829904534132872</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05166393288330774</v>
+        <v>0.05149243181128993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08882725266112558</v>
+        <v>0.08914985720689508</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -1220,19 +1220,19 @@
         <v>59910</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46767</v>
+        <v>46403</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75746</v>
+        <v>73554</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04397537514249301</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03432817778831624</v>
+        <v>0.03406132485600818</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05559928048172424</v>
+        <v>0.05399056215269938</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>665305</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>656523</v>
+        <v>655062</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>671816</v>
+        <v>670782</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9805394447293748</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9675967225996036</v>
+        <v>0.9654440441272546</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9901357385659193</v>
+        <v>0.9886111529805811</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>647</v>
@@ -1270,19 +1270,19 @@
         <v>637135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>623097</v>
+        <v>622877</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>648511</v>
+        <v>648628</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9317009546586713</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9111727473388745</v>
+        <v>0.9108501427931047</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9483360671166929</v>
+        <v>0.94850756818871</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1275</v>
@@ -1291,19 +1291,19 @@
         <v>1302440</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1286604</v>
+        <v>1288796</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1315583</v>
+        <v>1315947</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9560246248575069</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9444007195182756</v>
+        <v>0.9460094378473013</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9656718222116836</v>
+        <v>0.9659386751439921</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>26924</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18422</v>
+        <v>18055</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39214</v>
+        <v>38777</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0285750871050172</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0195520587499242</v>
+        <v>0.01916179698691125</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04161903135197317</v>
+        <v>0.04115444098355561</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -1416,19 +1416,19 @@
         <v>55644</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42596</v>
+        <v>42299</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70534</v>
+        <v>72307</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05357506650683821</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04101266709882474</v>
+        <v>0.0407268744137299</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06791152451581142</v>
+        <v>0.06961913958882915</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -1437,19 +1437,19 @@
         <v>82568</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66991</v>
+        <v>66717</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100956</v>
+        <v>101688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04168334220247195</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03381967578618612</v>
+        <v>0.03368140205865625</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05096620845824505</v>
+        <v>0.05133579457255719</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>915298</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>903008</v>
+        <v>903445</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>923800</v>
+        <v>924167</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9714249128949828</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.958380968648027</v>
+        <v>0.9588455590164444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9804479412500758</v>
+        <v>0.9808382030130888</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>943</v>
@@ -1487,19 +1487,19 @@
         <v>982968</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>968078</v>
+        <v>966305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>996016</v>
+        <v>996313</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9464249334931618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9320884754841885</v>
+        <v>0.9303808604111709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9589873329011752</v>
+        <v>0.95927312558627</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1909</v>
@@ -1508,19 +1508,19 @@
         <v>1898266</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1879878</v>
+        <v>1879146</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1913843</v>
+        <v>1914117</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9583166577975281</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9490337915417549</v>
+        <v>0.9486642054274431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9661803242138138</v>
+        <v>0.9663185979413438</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>84552</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67003</v>
+        <v>67556</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103200</v>
+        <v>104450</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02581323006838105</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02045571700915001</v>
+        <v>0.02062454450905332</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0315063390412566</v>
+        <v>0.03188802299478079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -1633,19 +1633,19 @@
         <v>180138</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>156650</v>
+        <v>155946</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>207294</v>
+        <v>210239</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05330795268054919</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04635712865551635</v>
+        <v>0.04614883021046847</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0613442905330876</v>
+        <v>0.06221571151343309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>262</v>
@@ -1654,19 +1654,19 @@
         <v>264690</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>233306</v>
+        <v>234115</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>295210</v>
+        <v>298864</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03977475787123594</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03505876950106671</v>
+        <v>0.0351802547518005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04436100975319661</v>
+        <v>0.04491002382770409</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3190973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3172325</v>
+        <v>3171075</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3208522</v>
+        <v>3207969</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9741867699316189</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9684936609587439</v>
+        <v>0.9681119770052193</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9795442829908503</v>
+        <v>0.9793754554909468</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3120</v>
@@ -1704,19 +1704,19 @@
         <v>3199059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3171903</v>
+        <v>3168958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3222547</v>
+        <v>3223251</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9466920473194508</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9386557094669123</v>
+        <v>0.9377842884865669</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9536428713444837</v>
+        <v>0.9538511697895315</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6248</v>
@@ -1725,19 +1725,19 @@
         <v>6390032</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6359512</v>
+        <v>6355858</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6421416</v>
+        <v>6420607</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.960225242128764</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9556389902468033</v>
+        <v>0.955089976172296</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9649412304989331</v>
+        <v>0.9648197452481996</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>24529</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15371</v>
+        <v>15075</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35676</v>
+        <v>38255</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03500263263397403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02193499823444357</v>
+        <v>0.02151193733011856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05090955259384724</v>
+        <v>0.05459050436281762</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -2090,19 +2090,19 @@
         <v>49397</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37286</v>
+        <v>36716</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64095</v>
+        <v>63563</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07134800030634196</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05385485074990724</v>
+        <v>0.05303232219129152</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09257826129192269</v>
+        <v>0.09180973284902424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -2111,19 +2111,19 @@
         <v>73925</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58238</v>
+        <v>58991</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93608</v>
+        <v>93082</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05306538972422868</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0418043946161845</v>
+        <v>0.04234524927111609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06719395547969284</v>
+        <v>0.0668162794990295</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>676235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>665088</v>
+        <v>662509</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>685393</v>
+        <v>685689</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9649973673660259</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9490904474061528</v>
+        <v>0.9454094956371824</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9780650017655564</v>
+        <v>0.9784880626698815</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>599</v>
@@ -2161,19 +2161,19 @@
         <v>642940</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>628242</v>
+        <v>628774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>655051</v>
+        <v>655621</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9286519996936581</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9074217387080771</v>
+        <v>0.9081902671509756</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9461451492500927</v>
+        <v>0.9469676778087084</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1248</v>
@@ -2182,19 +2182,19 @@
         <v>1319175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1299492</v>
+        <v>1300018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1334862</v>
+        <v>1334109</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9469346102757713</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9328060445203077</v>
+        <v>0.9331837205009704</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9581956053838157</v>
+        <v>0.957654750728884</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>30227</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20986</v>
+        <v>20097</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44552</v>
+        <v>44084</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02969423275202218</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02061625783549864</v>
+        <v>0.01974289455561293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04376639267978318</v>
+        <v>0.04330679968325672</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -2307,19 +2307,19 @@
         <v>82944</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66392</v>
+        <v>65594</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>101537</v>
+        <v>104519</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08061210268118849</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06452587827723756</v>
+        <v>0.06375021791442897</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09868230860876122</v>
+        <v>0.101580493635731</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -2328,19 +2328,19 @@
         <v>113171</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93181</v>
+        <v>92911</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135562</v>
+        <v>136742</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05528971218628306</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04552339996938051</v>
+        <v>0.04539153021623794</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0662287758876854</v>
+        <v>0.0668055833049763</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>987720</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>973395</v>
+        <v>973863</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>996961</v>
+        <v>997850</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9703057672479778</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9562336073202172</v>
+        <v>0.9566932003167441</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9793837421645015</v>
+        <v>0.9802571054443872</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>862</v>
@@ -2378,19 +2378,19 @@
         <v>945981</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>927388</v>
+        <v>924406</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>962533</v>
+        <v>963331</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9193878973188115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9013176913912389</v>
+        <v>0.8984195063642689</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9354741217227625</v>
+        <v>0.936249782085571</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1770</v>
@@ -2399,19 +2399,19 @@
         <v>1933701</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1911310</v>
+        <v>1910130</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1953691</v>
+        <v>1953961</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9447102878137169</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9337712241123145</v>
+        <v>0.9331944166950236</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9544766000306194</v>
+        <v>0.954608469783762</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>24781</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13845</v>
+        <v>14728</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39090</v>
+        <v>39049</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0327557348736511</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01830000174307225</v>
+        <v>0.01946794881883737</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05166952386927768</v>
+        <v>0.05161579377517859</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -2524,19 +2524,19 @@
         <v>46131</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32347</v>
+        <v>33681</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60434</v>
+        <v>62237</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05942606156006134</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04166921932981751</v>
+        <v>0.04338712314022063</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07785047163402535</v>
+        <v>0.0801725253436117</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -2545,19 +2545,19 @@
         <v>70912</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54286</v>
+        <v>55493</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91832</v>
+        <v>91000</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04626267980653312</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03541605959937505</v>
+        <v>0.03620320315128162</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05991056835111828</v>
+        <v>0.05936747409060468</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>731757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>717448</v>
+        <v>717489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>742693</v>
+        <v>741810</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9672442651263489</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9483304761307223</v>
+        <v>0.9483842062248221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9816999982569279</v>
+        <v>0.9805320511811628</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>663</v>
@@ -2595,19 +2595,19 @@
         <v>730152</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>715849</v>
+        <v>714046</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>743936</v>
+        <v>742602</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9405739384399386</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9221495283659746</v>
+        <v>0.9198274746563884</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9583307806701826</v>
+        <v>0.9566128768597795</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1334</v>
@@ -2616,19 +2616,19 @@
         <v>1461909</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1440989</v>
+        <v>1441821</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1478535</v>
+        <v>1477328</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9537373201934669</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9400894316488818</v>
+        <v>0.9406325259093955</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.964583940400625</v>
+        <v>0.9637967968487184</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>35248</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23600</v>
+        <v>24332</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51434</v>
+        <v>50259</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03726269126423022</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02494865265829008</v>
+        <v>0.02572302877791665</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05437352658885209</v>
+        <v>0.05313202114041393</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -2741,19 +2741,19 @@
         <v>74340</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58122</v>
+        <v>59142</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91490</v>
+        <v>93038</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07081695771761104</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05536744828263113</v>
+        <v>0.05633909788616635</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08715457540229625</v>
+        <v>0.08862922687860081</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -2762,19 +2762,19 @@
         <v>109588</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89716</v>
+        <v>89186</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133356</v>
+        <v>130061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05491257673165922</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04495515674006352</v>
+        <v>0.04468940853362725</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06682244040087776</v>
+        <v>0.0651712090263393</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>910682</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>894496</v>
+        <v>895671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>922330</v>
+        <v>921598</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9627373087357698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9456264734111481</v>
+        <v>0.9468679788595864</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.97505134734171</v>
+        <v>0.9742769712220835</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>929</v>
@@ -2812,19 +2812,19 @@
         <v>975406</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>958256</v>
+        <v>956708</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>991624</v>
+        <v>990604</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.929183042282389</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9128454245977038</v>
+        <v>0.9113707731213991</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9446325517173688</v>
+        <v>0.9436609021138336</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1807</v>
@@ -2833,19 +2833,19 @@
         <v>1886089</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1862321</v>
+        <v>1865616</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1905961</v>
+        <v>1906491</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9450874232683408</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9331775595991223</v>
+        <v>0.9348287909736608</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9550448432599364</v>
+        <v>0.9553105914663731</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>114785</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91480</v>
+        <v>92829</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>139574</v>
+        <v>139888</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03355118118953666</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02673937484947642</v>
+        <v>0.02713357235955597</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04079713072250962</v>
+        <v>0.04088874018502649</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>235</v>
@@ -2958,19 +2958,19 @@
         <v>252812</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>224840</v>
+        <v>220999</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>287162</v>
+        <v>285280</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07126901197491868</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06338367757465636</v>
+        <v>0.06230076659572482</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08095250038921865</v>
+        <v>0.08042195249927023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>332</v>
@@ -2979,19 +2979,19 @@
         <v>367597</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>331366</v>
+        <v>329122</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>410136</v>
+        <v>406733</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0527513974962274</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04755216702335444</v>
+        <v>0.0472300922148439</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0588560159562462</v>
+        <v>0.05836757455631206</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3306394</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3281605</v>
+        <v>3281291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3329699</v>
+        <v>3328350</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9664488188104633</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9592028692774909</v>
+        <v>0.9591112598149736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9732606251505236</v>
+        <v>0.9728664276404442</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3053</v>
@@ -3029,19 +3029,19 @@
         <v>3294480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3260130</v>
+        <v>3262012</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3322452</v>
+        <v>3326293</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9287309880250814</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9190474996107814</v>
+        <v>0.9195780475007299</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9366163224253437</v>
+        <v>0.9376992334042752</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6159</v>
@@ -3050,19 +3050,19 @@
         <v>6600874</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6558335</v>
+        <v>6561738</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6637105</v>
+        <v>6639349</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9472486025037726</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9411439840437532</v>
+        <v>0.941632425443688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9524478329766454</v>
+        <v>0.9527699077851561</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>16459</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9792</v>
+        <v>9133</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26757</v>
+        <v>25612</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02439040444324533</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01451025516270637</v>
+        <v>0.0135347624530725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0396520660359754</v>
+        <v>0.03795558469693436</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -3415,19 +3415,19 @@
         <v>52153</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38828</v>
+        <v>40298</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67977</v>
+        <v>67394</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07751178675376957</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05770733964019625</v>
+        <v>0.05989223346764861</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1010300786603873</v>
+        <v>0.1001639128617255</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -3436,19 +3436,19 @@
         <v>68612</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54085</v>
+        <v>53278</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85821</v>
+        <v>85171</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05091244610321982</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04013313404197603</v>
+        <v>0.03953445351198546</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06368280134443398</v>
+        <v>0.06320004930178408</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>658341</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>648043</v>
+        <v>649188</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>665008</v>
+        <v>665667</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9756095955567546</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9603479339640246</v>
+        <v>0.9620444153030652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9854897448372942</v>
+        <v>0.9864652375469274</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>614</v>
@@ -3486,19 +3486,19 @@
         <v>620686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>604862</v>
+        <v>605445</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>634011</v>
+        <v>632541</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9224882132462304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8989699213396127</v>
+        <v>0.8998360871382745</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9422926603598037</v>
+        <v>0.9401077665323515</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1250</v>
@@ -3507,19 +3507,19 @@
         <v>1279027</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1261818</v>
+        <v>1262468</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1293554</v>
+        <v>1294361</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9490875538967802</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9363171986555662</v>
+        <v>0.9367999506982159</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9598668659580241</v>
+        <v>0.9604655464880145</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>31438</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21860</v>
+        <v>21924</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43741</v>
+        <v>43755</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03074832289537166</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02138078591518099</v>
+        <v>0.02144263017185433</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04278158067180146</v>
+        <v>0.04279529258552047</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -3632,19 +3632,19 @@
         <v>69557</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53522</v>
+        <v>53987</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87919</v>
+        <v>87378</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06669488584033102</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05131962271432066</v>
+        <v>0.05176573649696792</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08430119402426225</v>
+        <v>0.08378250224262847</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>92</v>
@@ -3653,19 +3653,19 @@
         <v>100995</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81162</v>
+        <v>82313</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123884</v>
+        <v>123827</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04889984534618453</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03929687507874653</v>
+        <v>0.03985459047024461</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05998227125081408</v>
+        <v>0.05995452713018405</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>990993</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>978690</v>
+        <v>978676</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1000571</v>
+        <v>1000507</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9692516771046283</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9572184193281985</v>
+        <v>0.9572047074144797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9786192140848191</v>
+        <v>0.9785573698281458</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>915</v>
@@ -3703,19 +3703,19 @@
         <v>973356</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>954994</v>
+        <v>955535</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>989391</v>
+        <v>988926</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.933305114159669</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9156988059757378</v>
+        <v>0.9162174977573715</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9486803772856794</v>
+        <v>0.9482342635030322</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1836</v>
@@ -3724,19 +3724,19 @@
         <v>1964349</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1941460</v>
+        <v>1941517</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1984182</v>
+        <v>1983031</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9511001546538155</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9400177287491862</v>
+        <v>0.940045472869816</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9607031249212534</v>
+        <v>0.9601454095297554</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>29806</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20983</v>
+        <v>19932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43791</v>
+        <v>42195</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03924193386946673</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02762491584120159</v>
+        <v>0.02624215898768851</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05765349009267244</v>
+        <v>0.05555183534244477</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -3849,19 +3849,19 @@
         <v>57822</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43569</v>
+        <v>44062</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73853</v>
+        <v>74603</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07365753754669321</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05550130979746665</v>
+        <v>0.05612970634188603</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09407902258527748</v>
+        <v>0.09503407273432976</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -3870,19 +3870,19 @@
         <v>87628</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68518</v>
+        <v>68862</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107237</v>
+        <v>104949</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05673336742174055</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04436083589954559</v>
+        <v>0.04458348936556665</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06942871368761749</v>
+        <v>0.06794751281303983</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>729746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>715761</v>
+        <v>717357</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>738569</v>
+        <v>739620</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9607580661305333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9423465099073277</v>
+        <v>0.9444481646575553</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9723750841587985</v>
+        <v>0.9737578410123116</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>683</v>
@@ -3920,19 +3920,19 @@
         <v>727189</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>711158</v>
+        <v>710408</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>741442</v>
+        <v>740949</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9263424624533068</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9059209774147224</v>
+        <v>0.9049659272656703</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9444986902025334</v>
+        <v>0.9438702936581139</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1351</v>
@@ -3941,19 +3941,19 @@
         <v>1456935</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1437326</v>
+        <v>1439614</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1476045</v>
+        <v>1475701</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9432666325782595</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9305712863123824</v>
+        <v>0.9320524871869602</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9556391641004544</v>
+        <v>0.9554165106344334</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>40462</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28594</v>
+        <v>28863</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54616</v>
+        <v>55591</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04315624881943454</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03049804264215096</v>
+        <v>0.03078478858008611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05825293399279047</v>
+        <v>0.05929333880282571</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -4066,19 +4066,19 @@
         <v>91125</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72887</v>
+        <v>71955</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111855</v>
+        <v>110148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08730316591448929</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0698301293465735</v>
+        <v>0.06893690607270382</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1071635480709687</v>
+        <v>0.1055276719497572</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -4087,19 +4087,19 @@
         <v>131587</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110377</v>
+        <v>108321</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>155433</v>
+        <v>154996</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06641297695455334</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05570809840671855</v>
+        <v>0.05467021680308676</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07844816967299102</v>
+        <v>0.07822738691348857</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>897105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>882951</v>
+        <v>881976</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>908973</v>
+        <v>908704</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9568437511805654</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9417470660072096</v>
+        <v>0.9407066611971743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9695019573578489</v>
+        <v>0.9692152114199138</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>880</v>
@@ -4137,19 +4137,19 @@
         <v>952654</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>931924</v>
+        <v>933631</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>970892</v>
+        <v>971824</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9126968340855107</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8928364519290313</v>
+        <v>0.8944723280502428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9301698706534265</v>
+        <v>0.9310630939272961</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1773</v>
@@ -4158,19 +4158,19 @@
         <v>1849759</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1825913</v>
+        <v>1826350</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1870969</v>
+        <v>1873025</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9335870230454467</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.921551830327009</v>
+        <v>0.9217726130865114</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9442919015932815</v>
+        <v>0.9453297831969132</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>118165</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>98712</v>
+        <v>98133</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140587</v>
+        <v>141384</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03481221709572157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02908121080103974</v>
+        <v>0.02891074587079791</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0414180542750661</v>
+        <v>0.04165267043984326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>246</v>
@@ -4283,19 +4283,19 @@
         <v>270657</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>238236</v>
+        <v>238163</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>302886</v>
+        <v>305656</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07635883703637372</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06721206316001878</v>
+        <v>0.06719145952517991</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0854514299740696</v>
+        <v>0.08623277123905633</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>359</v>
@@ -4304,19 +4304,19 @@
         <v>388822</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>350998</v>
+        <v>352730</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>428115</v>
+        <v>426407</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05603516335786481</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05058417854181586</v>
+        <v>0.05083381690630415</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06169786487479319</v>
+        <v>0.06145175399198887</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3276185</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3253763</v>
+        <v>3252966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3295638</v>
+        <v>3296217</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9651877829042784</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.958581945724934</v>
+        <v>0.9583473295601567</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9709187891989605</v>
+        <v>0.9710892541292019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3092</v>
@@ -4354,19 +4354,19 @@
         <v>3273885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3241656</v>
+        <v>3238886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3306306</v>
+        <v>3306379</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9236411629636263</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9145485700259304</v>
+        <v>0.9137672287609436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9327879368399812</v>
+        <v>0.9328085404748204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6210</v>
@@ -4375,19 +4375,19 @@
         <v>6550070</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6510777</v>
+        <v>6512485</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6587894</v>
+        <v>6586162</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9439648366421352</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9383021351252068</v>
+        <v>0.9385482460080111</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9494158214581842</v>
+        <v>0.9491661830936957</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>30859</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21545</v>
+        <v>20912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42569</v>
+        <v>42908</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04470956053286211</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03121435597129439</v>
+        <v>0.03029785007033094</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06167522831549049</v>
+        <v>0.06216550738853703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -4740,19 +4740,19 @@
         <v>52209</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43226</v>
+        <v>41993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63320</v>
+        <v>63006</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07124706225135159</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05898898277636731</v>
+        <v>0.05730616006060726</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08641023814596291</v>
+        <v>0.08598240712053598</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>141</v>
@@ -4761,19 +4761,19 @@
         <v>83068</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70093</v>
+        <v>69817</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99598</v>
+        <v>100046</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05837523172186547</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0492576398063731</v>
+        <v>0.04906367498488162</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06999174513621421</v>
+        <v>0.07030669163484647</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>659356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>647646</v>
+        <v>647307</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668670</v>
+        <v>669303</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9552904394671379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9383247716845096</v>
+        <v>0.937834492611463</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9687856440287056</v>
+        <v>0.9697021499296691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1133</v>
@@ -4811,19 +4811,19 @@
         <v>680573</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>669462</v>
+        <v>669776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>689556</v>
+        <v>690789</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9287529377486485</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9135897618540371</v>
+        <v>0.914017592879464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9410110172236329</v>
+        <v>0.9426938399393928</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1826</v>
@@ -4832,19 +4832,19 @@
         <v>1339929</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1323399</v>
+        <v>1322951</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1352904</v>
+        <v>1353180</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9416247682781346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9300082548637855</v>
+        <v>0.9296933083651535</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9507423601936269</v>
+        <v>0.9509363250151182</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>32915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23260</v>
+        <v>23217</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45067</v>
+        <v>45711</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03137987966989435</v>
+        <v>0.03137987966989434</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02217527318533667</v>
+        <v>0.02213427678298053</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04296513343650859</v>
+        <v>0.04357907156946632</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>179</v>
@@ -4957,19 +4957,19 @@
         <v>108458</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93802</v>
+        <v>93856</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124246</v>
+        <v>124865</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1012833524115157</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08759719458325521</v>
+        <v>0.08764722006998822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1160271856980126</v>
+        <v>0.1166050098759848</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -4978,19 +4978,19 @@
         <v>141373</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>122270</v>
+        <v>121753</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162705</v>
+        <v>159466</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06669306018684493</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05768098018616031</v>
+        <v>0.0574371429144774</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07675642336853856</v>
+        <v>0.07522852015653714</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1016002</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1003850</v>
+        <v>1003206</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1025657</v>
+        <v>1025700</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9686201203301056</v>
+        <v>0.9686201203301057</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9570348665634912</v>
+        <v>0.9564209284305338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9778247268146633</v>
+        <v>0.9778657232170197</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1337</v>
@@ -5028,19 +5028,19 @@
         <v>962380</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>946592</v>
+        <v>945973</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>977036</v>
+        <v>976982</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8987166475884845</v>
+        <v>0.8987166475884844</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8839728143019875</v>
+        <v>0.8833949901240151</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9124028054167448</v>
+        <v>0.9123527799300117</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2265</v>
@@ -5049,19 +5049,19 @@
         <v>1978382</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1957050</v>
+        <v>1960289</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1997485</v>
+        <v>1998002</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.933306939813155</v>
+        <v>0.9333069398131552</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9232435766314613</v>
+        <v>0.9247714798434628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9423190198138398</v>
+        <v>0.9425628570855225</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>39319</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27938</v>
+        <v>27530</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54238</v>
+        <v>53743</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04902109301140788</v>
+        <v>0.04902109301140787</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0348322447729676</v>
+        <v>0.0343233940455564</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06762111478054295</v>
+        <v>0.06700434678989257</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -5174,19 +5174,19 @@
         <v>59898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48573</v>
+        <v>48010</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72916</v>
+        <v>72152</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07385857412985937</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05989421796267672</v>
+        <v>0.05919912333968092</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0899108739299542</v>
+        <v>0.08896791925890066</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>124</v>
@@ -5195,19 +5195,19 @@
         <v>99217</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82486</v>
+        <v>80998</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118480</v>
+        <v>116149</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06150834623802749</v>
+        <v>0.0615083462380275</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05113600011099686</v>
+        <v>0.05021386343919245</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07344994882392342</v>
+        <v>0.07200509611809602</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>762767</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>747848</v>
+        <v>748343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>774148</v>
+        <v>774556</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.950978906988592</v>
+        <v>0.9509789069885921</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9323788852194574</v>
+        <v>0.932995653210107</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9651677552270327</v>
+        <v>0.9656766059544436</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>958</v>
@@ -5245,19 +5245,19 @@
         <v>751087</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>738069</v>
+        <v>738833</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>762412</v>
+        <v>762975</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9261414258701407</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9100891260700454</v>
+        <v>0.9110320807410993</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9401057820373231</v>
+        <v>0.9408008766603193</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1596</v>
@@ -5266,19 +5266,19 @@
         <v>1513853</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1494590</v>
+        <v>1496921</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1530584</v>
+        <v>1532072</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9384916537619724</v>
+        <v>0.9384916537619725</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9265500511760763</v>
+        <v>0.927994903881904</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9488639998890031</v>
+        <v>0.9497861365608075</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>47347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36558</v>
+        <v>35880</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61062</v>
+        <v>60332</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04782233362997201</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03692455014175449</v>
+        <v>0.03624047820292275</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06167515215852679</v>
+        <v>0.0609371395295159</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>140</v>
@@ -5391,19 +5391,19 @@
         <v>93522</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78484</v>
+        <v>78879</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>110707</v>
+        <v>111049</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08372407295886843</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07026124735985738</v>
+        <v>0.0706144430309953</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09910839938926336</v>
+        <v>0.09941477893404008</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>198</v>
@@ -5412,19 +5412,19 @@
         <v>140869</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122254</v>
+        <v>120868</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>163154</v>
+        <v>161067</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06685488042191917</v>
+        <v>0.06685488042191919</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0580202346683957</v>
+        <v>0.05736241221156213</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07743063215464434</v>
+        <v>0.07644025133904621</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>942715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>929000</v>
+        <v>929730</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>953504</v>
+        <v>954182</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.952177666370028</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9383248478414731</v>
+        <v>0.9390628604704843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9630754498582454</v>
+        <v>0.9637595217970772</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1419</v>
@@ -5462,19 +5462,19 @@
         <v>1023509</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1006324</v>
+        <v>1005982</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1038547</v>
+        <v>1038152</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9162759270411317</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9008916006107369</v>
+        <v>0.9005852210659597</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9297387526401426</v>
+        <v>0.9293855569690045</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2367</v>
@@ -5483,19 +5483,19 @@
         <v>1966224</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1943939</v>
+        <v>1946026</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1984839</v>
+        <v>1986225</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9331451195780809</v>
+        <v>0.933145119578081</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9225693678453557</v>
+        <v>0.9235597486609538</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9419797653316042</v>
+        <v>0.942637587788438</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>150440</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>127848</v>
+        <v>128528</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>175428</v>
+        <v>177902</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04260220142732761</v>
+        <v>0.0426022014273276</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03620433916357802</v>
+        <v>0.03639710590812335</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04967828967545175</v>
+        <v>0.05037896737454911</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>511</v>
@@ -5608,19 +5608,19 @@
         <v>314087</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>288087</v>
+        <v>290653</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342515</v>
+        <v>344884</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08416877020835269</v>
+        <v>0.08416877020835266</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07720123231909302</v>
+        <v>0.07788883169725812</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09178685948479684</v>
+        <v>0.09242167545615469</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>678</v>
@@ -5629,19 +5629,19 @@
         <v>464527</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>430047</v>
+        <v>426577</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>502619</v>
+        <v>502269</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06395881662727775</v>
+        <v>0.06395881662727776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05921133505176703</v>
+        <v>0.05873353348297853</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06920344312363322</v>
+        <v>0.06915528454445774</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3380840</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3355852</v>
+        <v>3353378</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3403432</v>
+        <v>3402752</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9573977985726724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9503217103245483</v>
+        <v>0.9496210326254508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.963795660836422</v>
+        <v>0.9636028940918764</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4847</v>
@@ -5679,19 +5679,19 @@
         <v>3417548</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3389120</v>
+        <v>3386751</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3443548</v>
+        <v>3440982</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9158312297916474</v>
+        <v>0.9158312297916473</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9082131405152032</v>
+        <v>0.9075783245438452</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.922798767680907</v>
+        <v>0.9221111683027416</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8054</v>
@@ -5700,19 +5700,19 @@
         <v>6798388</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6760296</v>
+        <v>6760646</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6832868</v>
+        <v>6836338</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9360411833727221</v>
+        <v>0.9360411833727222</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.930796556876367</v>
+        <v>0.9308447154555423</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9407886649482331</v>
+        <v>0.9412664665170216</v>
       </c>
     </row>
     <row r="18">
